--- a/StockInfo/otc_analysis_result_20251203.xlsx
+++ b/StockInfo/otc_analysis_result_20251203.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="20251203" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251203" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result_20251203.xlsx
+++ b/StockInfo/otc_analysis_result_20251203.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20251203" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="20251203" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/StockInfo/otc_analysis_result_20251203.xlsx
+++ b/StockInfo/otc_analysis_result_20251203.xlsx
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -204,6 +204,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -620,15 +623,15 @@
           <t>【2025-12-03 買超 TOP 100】</t>
         </is>
       </c>
-      <c r="B1" s="15" t="n"/>
-      <c r="C1" s="15" t="n"/>
-      <c r="D1" s="15" t="n"/>
-      <c r="E1" s="15" t="n"/>
-      <c r="F1" s="15" t="n"/>
-      <c r="G1" s="15" t="n"/>
-      <c r="H1" s="15" t="n"/>
-      <c r="I1" s="15" t="n"/>
-      <c r="J1" s="16" t="n"/>
+      <c r="B1" s="16" t="n"/>
+      <c r="C1" s="16" t="n"/>
+      <c r="D1" s="16" t="n"/>
+      <c r="E1" s="16" t="n"/>
+      <c r="F1" s="16" t="n"/>
+      <c r="G1" s="16" t="n"/>
+      <c r="H1" s="16" t="n"/>
+      <c r="I1" s="16" t="n"/>
+      <c r="J1" s="17" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -643,52 +646,52 @@
       <c r="J2" s="4" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>排名</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>證券代號</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>證券領域</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>證券名稱</t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr">
+      <c r="E3" s="9" t="inlineStr">
         <is>
           <t>收盤價</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="F3" s="9" t="inlineStr">
         <is>
           <t>漲跌價差</t>
         </is>
       </c>
-      <c r="G3" s="8" t="inlineStr">
+      <c r="G3" s="9" t="inlineStr">
         <is>
           <t>買賣超張數</t>
         </is>
       </c>
-      <c r="H3" s="9" t="inlineStr">
+      <c r="H3" s="10" t="inlineStr">
         <is>
           <t>新進榜</t>
         </is>
       </c>
-      <c r="I3" s="10" t="inlineStr">
+      <c r="I3" s="11" t="inlineStr">
         <is>
           <t>值得觀察</t>
         </is>
       </c>
-      <c r="J3" s="11" t="inlineStr">
+      <c r="J3" s="12" t="inlineStr">
         <is>
           <t>統計數據(60天)</t>
         </is>
@@ -727,7 +730,7 @@
         <v>4655</v>
       </c>
       <c r="H4" s="4" t="inlineStr"/>
-      <c r="I4" s="12" t="inlineStr">
+      <c r="I4" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(8.3σ)+連續買超</t>
         </is>
@@ -770,12 +773,12 @@
       <c r="G5" s="4" t="n">
         <v>3935</v>
       </c>
-      <c r="H5" s="13" t="inlineStr">
+      <c r="H5" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
       </c>
-      <c r="I5" s="12" t="inlineStr">
+      <c r="I5" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(14.3σ)</t>
         </is>
@@ -819,7 +822,7 @@
         <v>3701</v>
       </c>
       <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="12" t="inlineStr">
+      <c r="I6" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(5.0σ)</t>
         </is>
@@ -862,12 +865,12 @@
       <c r="G7" s="4" t="n">
         <v>2234</v>
       </c>
-      <c r="H7" s="13" t="inlineStr">
+      <c r="H7" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
       </c>
-      <c r="I7" s="12" t="inlineStr">
+      <c r="I7" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.6σ)</t>
         </is>
@@ -910,7 +913,7 @@
       <c r="G8" s="4" t="n">
         <v>2233</v>
       </c>
-      <c r="H8" s="13" t="inlineStr">
+      <c r="H8" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
@@ -987,7 +990,7 @@
         <v>1377</v>
       </c>
       <c r="H10" s="4" t="inlineStr"/>
-      <c r="I10" s="12" t="inlineStr">
+      <c r="I10" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1098,12 +1101,12 @@
       <c r="G13" s="4" t="n">
         <v>1090</v>
       </c>
-      <c r="H13" s="13" t="inlineStr">
+      <c r="H13" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
       </c>
-      <c r="I13" s="12" t="inlineStr">
+      <c r="I13" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.6σ)</t>
         </is>
@@ -1146,12 +1149,12 @@
       <c r="G14" s="4" t="n">
         <v>892</v>
       </c>
-      <c r="H14" s="13" t="inlineStr">
+      <c r="H14" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
       </c>
-      <c r="I14" s="12" t="inlineStr">
+      <c r="I14" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.1σ)</t>
         </is>
@@ -1194,12 +1197,12 @@
       <c r="G15" s="4" t="n">
         <v>818</v>
       </c>
-      <c r="H15" s="13" t="inlineStr">
+      <c r="H15" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
       </c>
-      <c r="I15" s="12" t="inlineStr">
+      <c r="I15" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1311,7 +1314,7 @@
         <v>670</v>
       </c>
       <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="12" t="inlineStr">
+      <c r="I18" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1351,7 +1354,7 @@
         <v>663</v>
       </c>
       <c r="H19" s="4" t="inlineStr"/>
-      <c r="I19" s="12" t="inlineStr">
+      <c r="I19" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1390,7 +1393,7 @@
       <c r="G20" s="4" t="n">
         <v>660</v>
       </c>
-      <c r="H20" s="13" t="inlineStr">
+      <c r="H20" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
@@ -1430,7 +1433,7 @@
       <c r="G21" s="4" t="n">
         <v>526</v>
       </c>
-      <c r="H21" s="13" t="inlineStr">
+      <c r="H21" s="14" t="inlineStr">
         <is>
           <t>🔥NEW</t>
         </is>
@@ -1471,7 +1474,7 @@
         <v>472</v>
       </c>
       <c r="H22" s="4" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr">
+      <c r="I22" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1511,7 +1514,7 @@
         <v>447</v>
       </c>
       <c r="H23" s="4" t="inlineStr"/>
-      <c r="I23" s="12" t="inlineStr">
+      <c r="I23" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1623,7 +1626,7 @@
         <v>433</v>
       </c>
       <c r="H26" s="4" t="inlineStr"/>
-      <c r="I26" s="12" t="inlineStr">
+      <c r="I26" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1699,7 +1702,7 @@
         <v>404</v>
       </c>
       <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="12" t="inlineStr">
+      <c r="I28" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -1775,7 +1778,7 @@
         <v>362</v>
       </c>
       <c r="H30" s="4" t="inlineStr"/>
-      <c r="I30" s="12" t="inlineStr">
+      <c r="I30" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(6.3σ)</t>
         </is>
@@ -1855,7 +1858,7 @@
         <v>347</v>
       </c>
       <c r="H32" s="4" t="inlineStr"/>
-      <c r="I32" s="12" t="inlineStr">
+      <c r="I32" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(4.0σ)</t>
         </is>
@@ -2007,7 +2010,7 @@
         <v>289</v>
       </c>
       <c r="H36" s="4" t="inlineStr"/>
-      <c r="I36" s="12" t="inlineStr">
+      <c r="I36" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2083,7 +2086,7 @@
         <v>271</v>
       </c>
       <c r="H38" s="4" t="inlineStr"/>
-      <c r="I38" s="12" t="inlineStr">
+      <c r="I38" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2339,7 +2342,7 @@
         <v>226</v>
       </c>
       <c r="H45" s="4" t="inlineStr"/>
-      <c r="I45" s="12" t="inlineStr">
+      <c r="I45" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.4σ)</t>
         </is>
@@ -2491,7 +2494,7 @@
         <v>214</v>
       </c>
       <c r="H49" s="4" t="inlineStr"/>
-      <c r="I49" s="12" t="inlineStr">
+      <c r="I49" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2639,7 +2642,7 @@
         <v>188</v>
       </c>
       <c r="H53" s="4" t="inlineStr"/>
-      <c r="I53" s="12" t="inlineStr">
+      <c r="I53" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2715,7 +2718,7 @@
         <v>180</v>
       </c>
       <c r="H55" s="4" t="inlineStr"/>
-      <c r="I55" s="12" t="inlineStr">
+      <c r="I55" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2755,7 +2758,7 @@
         <v>176</v>
       </c>
       <c r="H56" s="4" t="inlineStr"/>
-      <c r="I56" s="12" t="inlineStr">
+      <c r="I56" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2795,7 +2798,7 @@
         <v>160</v>
       </c>
       <c r="H57" s="4" t="inlineStr"/>
-      <c r="I57" s="12" t="inlineStr">
+      <c r="I57" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2835,7 +2838,7 @@
         <v>160</v>
       </c>
       <c r="H58" s="4" t="inlineStr"/>
-      <c r="I58" s="12" t="inlineStr">
+      <c r="I58" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2875,7 +2878,7 @@
         <v>159</v>
       </c>
       <c r="H59" s="4" t="inlineStr"/>
-      <c r="I59" s="12" t="inlineStr">
+      <c r="I59" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -2915,7 +2918,7 @@
         <v>159</v>
       </c>
       <c r="H60" s="4" t="inlineStr"/>
-      <c r="I60" s="12" t="inlineStr">
+      <c r="I60" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3063,7 +3066,7 @@
         <v>152</v>
       </c>
       <c r="H64" s="4" t="inlineStr"/>
-      <c r="I64" s="12" t="inlineStr">
+      <c r="I64" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.0σ)+連續買超</t>
         </is>
@@ -3143,7 +3146,7 @@
         <v>148</v>
       </c>
       <c r="H66" s="4" t="inlineStr"/>
-      <c r="I66" s="12" t="inlineStr">
+      <c r="I66" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3255,7 +3258,7 @@
         <v>138</v>
       </c>
       <c r="H69" s="4" t="inlineStr"/>
-      <c r="I69" s="12" t="inlineStr">
+      <c r="I69" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3331,7 +3334,7 @@
         <v>135</v>
       </c>
       <c r="H71" s="4" t="inlineStr"/>
-      <c r="I71" s="12" t="inlineStr">
+      <c r="I71" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3371,7 +3374,7 @@
         <v>134</v>
       </c>
       <c r="H72" s="4" t="inlineStr"/>
-      <c r="I72" s="12" t="inlineStr">
+      <c r="I72" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3411,7 +3414,7 @@
         <v>133</v>
       </c>
       <c r="H73" s="4" t="inlineStr"/>
-      <c r="I73" s="12" t="inlineStr">
+      <c r="I73" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3451,7 +3454,7 @@
         <v>126</v>
       </c>
       <c r="H74" s="4" t="inlineStr"/>
-      <c r="I74" s="12" t="inlineStr">
+      <c r="I74" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3491,7 +3494,7 @@
         <v>125</v>
       </c>
       <c r="H75" s="4" t="inlineStr"/>
-      <c r="I75" s="12" t="inlineStr">
+      <c r="I75" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3603,7 +3606,7 @@
         <v>124</v>
       </c>
       <c r="H78" s="4" t="inlineStr"/>
-      <c r="I78" s="12" t="inlineStr">
+      <c r="I78" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3787,7 +3790,7 @@
         <v>111</v>
       </c>
       <c r="H83" s="4" t="inlineStr"/>
-      <c r="I83" s="12" t="inlineStr">
+      <c r="I83" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3827,7 +3830,7 @@
         <v>107</v>
       </c>
       <c r="H84" s="4" t="inlineStr"/>
-      <c r="I84" s="12" t="inlineStr">
+      <c r="I84" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -3939,7 +3942,7 @@
         <v>106</v>
       </c>
       <c r="H87" s="4" t="inlineStr"/>
-      <c r="I87" s="12" t="inlineStr">
+      <c r="I87" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4015,7 +4018,7 @@
         <v>105</v>
       </c>
       <c r="H89" s="4" t="inlineStr"/>
-      <c r="I89" s="12" t="inlineStr">
+      <c r="I89" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4055,7 +4058,7 @@
         <v>105</v>
       </c>
       <c r="H90" s="4" t="inlineStr"/>
-      <c r="I90" s="12" t="inlineStr">
+      <c r="I90" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4095,7 +4098,7 @@
         <v>104</v>
       </c>
       <c r="H91" s="4" t="inlineStr"/>
-      <c r="I91" s="12" t="inlineStr">
+      <c r="I91" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4243,7 +4246,7 @@
         <v>99</v>
       </c>
       <c r="H95" s="4" t="inlineStr"/>
-      <c r="I95" s="12" t="inlineStr">
+      <c r="I95" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4283,7 +4286,7 @@
         <v>95</v>
       </c>
       <c r="H96" s="4" t="inlineStr"/>
-      <c r="I96" s="12" t="inlineStr">
+      <c r="I96" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(5.7σ)</t>
         </is>
@@ -4363,7 +4366,7 @@
         <v>93</v>
       </c>
       <c r="H98" s="4" t="inlineStr"/>
-      <c r="I98" s="12" t="inlineStr">
+      <c r="I98" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4403,7 +4406,7 @@
         <v>91</v>
       </c>
       <c r="H99" s="4" t="inlineStr"/>
-      <c r="I99" s="12" t="inlineStr">
+      <c r="I99" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4479,7 +4482,7 @@
         <v>87</v>
       </c>
       <c r="H101" s="4" t="inlineStr"/>
-      <c r="I101" s="12" t="inlineStr">
+      <c r="I101" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4555,7 +4558,7 @@
         <v>85</v>
       </c>
       <c r="H103" s="4" t="inlineStr"/>
-      <c r="I103" s="12" t="inlineStr">
+      <c r="I103" s="13" t="inlineStr">
         <is>
           <t>👀連續買超</t>
         </is>
@@ -4592,15 +4595,15 @@
           <t>【2025-12-03 賣超 TOP 50】</t>
         </is>
       </c>
-      <c r="B106" s="15" t="n"/>
-      <c r="C106" s="15" t="n"/>
-      <c r="D106" s="15" t="n"/>
-      <c r="E106" s="15" t="n"/>
-      <c r="F106" s="15" t="n"/>
-      <c r="G106" s="15" t="n"/>
-      <c r="H106" s="15" t="n"/>
-      <c r="I106" s="15" t="n"/>
-      <c r="J106" s="16" t="n"/>
+      <c r="B106" s="16" t="n"/>
+      <c r="C106" s="16" t="n"/>
+      <c r="D106" s="16" t="n"/>
+      <c r="E106" s="16" t="n"/>
+      <c r="F106" s="16" t="n"/>
+      <c r="G106" s="16" t="n"/>
+      <c r="H106" s="16" t="n"/>
+      <c r="I106" s="16" t="n"/>
+      <c r="J106" s="17" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="4" t="n"/>
@@ -4650,17 +4653,17 @@
           <t>買賣超張數</t>
         </is>
       </c>
-      <c r="H108" s="9" t="inlineStr">
+      <c r="H108" s="10" t="inlineStr">
         <is>
           <t>新進榜</t>
         </is>
       </c>
-      <c r="I108" s="10" t="inlineStr">
+      <c r="I108" s="11" t="inlineStr">
         <is>
           <t>值得觀察</t>
         </is>
       </c>
-      <c r="J108" s="11" t="inlineStr">
+      <c r="J108" s="12" t="inlineStr">
         <is>
           <t>統計數據(60天)</t>
         </is>
@@ -4699,7 +4702,7 @@
         <v>-10654</v>
       </c>
       <c r="H109" s="4" t="inlineStr"/>
-      <c r="I109" s="12" t="inlineStr">
+      <c r="I109" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -4739,7 +4742,7 @@
         <v>-5032</v>
       </c>
       <c r="H110" s="4" t="inlineStr"/>
-      <c r="I110" s="12" t="inlineStr">
+      <c r="I110" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.1σ)</t>
         </is>
@@ -4783,7 +4786,7 @@
         <v>-3780</v>
       </c>
       <c r="H111" s="4" t="inlineStr"/>
-      <c r="I111" s="12" t="inlineStr">
+      <c r="I111" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.8σ)</t>
         </is>
@@ -4826,12 +4829,12 @@
       <c r="G112" s="4" t="n">
         <v>-3661</v>
       </c>
-      <c r="H112" s="14" t="inlineStr">
+      <c r="H112" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
       </c>
-      <c r="I112" s="12" t="inlineStr">
+      <c r="I112" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.7σ)</t>
         </is>
@@ -4875,7 +4878,7 @@
         <v>-3462</v>
       </c>
       <c r="H113" s="4" t="inlineStr"/>
-      <c r="I113" s="12" t="inlineStr">
+      <c r="I113" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.8σ)</t>
         </is>
@@ -4918,12 +4921,12 @@
       <c r="G114" s="4" t="n">
         <v>-3376</v>
       </c>
-      <c r="H114" s="14" t="inlineStr">
+      <c r="H114" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
       </c>
-      <c r="I114" s="12" t="inlineStr">
+      <c r="I114" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.7σ)</t>
         </is>
@@ -5003,7 +5006,7 @@
         <v>-2510</v>
       </c>
       <c r="H116" s="4" t="inlineStr"/>
-      <c r="I116" s="12" t="inlineStr">
+      <c r="I116" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5079,7 +5082,7 @@
         <v>-1510</v>
       </c>
       <c r="H118" s="4" t="inlineStr"/>
-      <c r="I118" s="12" t="inlineStr">
+      <c r="I118" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(2.6σ)</t>
         </is>
@@ -5159,7 +5162,7 @@
         <v>-1239</v>
       </c>
       <c r="H120" s="4" t="inlineStr"/>
-      <c r="I120" s="12" t="inlineStr">
+      <c r="I120" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5198,7 +5201,7 @@
       <c r="G121" s="4" t="n">
         <v>-1208</v>
       </c>
-      <c r="H121" s="14" t="inlineStr">
+      <c r="H121" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
@@ -5239,7 +5242,7 @@
         <v>-1198</v>
       </c>
       <c r="H122" s="4" t="inlineStr"/>
-      <c r="I122" s="12" t="inlineStr">
+      <c r="I122" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5278,12 +5281,12 @@
       <c r="G123" s="4" t="n">
         <v>-1180</v>
       </c>
-      <c r="H123" s="14" t="inlineStr">
+      <c r="H123" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
       </c>
-      <c r="I123" s="12" t="inlineStr">
+      <c r="I123" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(6.8σ)</t>
         </is>
@@ -5326,7 +5329,7 @@
       <c r="G124" s="4" t="n">
         <v>-1050</v>
       </c>
-      <c r="H124" s="14" t="inlineStr">
+      <c r="H124" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
@@ -5366,7 +5369,7 @@
       <c r="G125" s="4" t="n">
         <v>-928</v>
       </c>
-      <c r="H125" s="14" t="inlineStr">
+      <c r="H125" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
@@ -5406,12 +5409,12 @@
       <c r="G126" s="4" t="n">
         <v>-864</v>
       </c>
-      <c r="H126" s="14" t="inlineStr">
+      <c r="H126" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
       </c>
-      <c r="I126" s="12" t="inlineStr">
+      <c r="I126" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(6.9σ)</t>
         </is>
@@ -5490,7 +5493,7 @@
       <c r="G128" s="4" t="n">
         <v>-778</v>
       </c>
-      <c r="H128" s="14" t="inlineStr">
+      <c r="H128" s="15" t="inlineStr">
         <is>
           <t>📉NEW</t>
         </is>
@@ -5531,7 +5534,7 @@
         <v>-671</v>
       </c>
       <c r="H129" s="4" t="inlineStr"/>
-      <c r="I129" s="12" t="inlineStr">
+      <c r="I129" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5571,7 +5574,7 @@
         <v>-528</v>
       </c>
       <c r="H130" s="4" t="inlineStr"/>
-      <c r="I130" s="12" t="inlineStr">
+      <c r="I130" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.4σ)</t>
         </is>
@@ -5615,7 +5618,7 @@
         <v>-516</v>
       </c>
       <c r="H131" s="4" t="inlineStr"/>
-      <c r="I131" s="12" t="inlineStr">
+      <c r="I131" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.2σ)</t>
         </is>
@@ -5659,7 +5662,7 @@
         <v>-485</v>
       </c>
       <c r="H132" s="4" t="inlineStr"/>
-      <c r="I132" s="12" t="inlineStr">
+      <c r="I132" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5735,7 +5738,7 @@
         <v>-418</v>
       </c>
       <c r="H134" s="4" t="inlineStr"/>
-      <c r="I134" s="12" t="inlineStr">
+      <c r="I134" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5811,7 +5814,7 @@
         <v>-390</v>
       </c>
       <c r="H136" s="4" t="inlineStr"/>
-      <c r="I136" s="12" t="inlineStr">
+      <c r="I136" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -5959,7 +5962,7 @@
         <v>-302</v>
       </c>
       <c r="H140" s="4" t="inlineStr"/>
-      <c r="I140" s="12" t="inlineStr">
+      <c r="I140" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -6035,7 +6038,7 @@
         <v>-265</v>
       </c>
       <c r="H142" s="4" t="inlineStr"/>
-      <c r="I142" s="12" t="inlineStr">
+      <c r="I142" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -6075,7 +6078,7 @@
         <v>-233</v>
       </c>
       <c r="H143" s="4" t="inlineStr"/>
-      <c r="I143" s="12" t="inlineStr">
+      <c r="I143" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -6187,7 +6190,7 @@
         <v>-223</v>
       </c>
       <c r="H146" s="4" t="inlineStr"/>
-      <c r="I146" s="12" t="inlineStr">
+      <c r="I146" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
@@ -6551,7 +6554,7 @@
         <v>-143</v>
       </c>
       <c r="H156" s="4" t="inlineStr"/>
-      <c r="I156" s="12" t="inlineStr">
+      <c r="I156" s="13" t="inlineStr">
         <is>
           <t>👀異常波動(3.0σ)</t>
         </is>
@@ -6631,7 +6634,7 @@
         <v>-124</v>
       </c>
       <c r="H158" s="4" t="inlineStr"/>
-      <c r="I158" s="12" t="inlineStr">
+      <c r="I158" s="13" t="inlineStr">
         <is>
           <t>👀連續賣超</t>
         </is>
